--- a/scripts/genxls/res.xlsx
+++ b/scripts/genxls/res.xlsx
@@ -199,7 +199,6 @@
       <bottom style="thin">
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -237,6 +236,7 @@
     <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors/>
 </styleSheet>
 </file>
 

--- a/scripts/genxls/res.xlsx
+++ b/scripts/genxls/res.xlsx
@@ -683,8 +683,7 @@
       </c>
       <c r="E16" s="12" t="inlineStr">
         <is>
-          <t>who
-hahahaahaha</t>
+          <t>hahahaahaha</t>
         </is>
       </c>
       <c r="F16" s="5" t="n"/>
@@ -798,7 +797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,14 +859,12 @@
     <row r="3">
       <c r="A3" s="17" t="inlineStr">
         <is>
-          <t>note</t>
+          <t>book</t>
         </is>
       </c>
       <c r="B3" s="17" t="inlineStr">
         <is>
-          <t>1
-2
-3</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C3" s="17" t="inlineStr">
@@ -884,22 +881,42 @@
     <row r="4">
       <c r="A4" s="17" t="inlineStr">
         <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="B4" s="17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" s="17" t="inlineStr">
+        <is>
+          <t>2020-1-1</t>
+        </is>
+      </c>
+      <c r="D4" s="17" t="inlineStr">
+        <is>
+          <t>&lt;not parse&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="17" t="inlineStr">
+        <is>
           <t>pen</t>
         </is>
       </c>
-      <c r="B4" s="17" t="inlineStr">
-        <is>
-          <t>100asfdafdasfdafafdasafsafsadfafdsafasdfafsdafaasdfasfdsafgweaawg
-200100asfdafdasfdafafdasafsafsadfafdsafasdfafsdafaasdfasfdsafgweaawg
-300200100asfdafdasfdafafdasafsafsadfafdsafasdfafsdafaasdfasfdsafgweaawg</t>
-        </is>
-      </c>
-      <c r="C4" s="17" t="inlineStr">
+      <c r="B5" s="17" t="inlineStr">
+        <is>
+          <t>300200100asfdafdasfdafafdasafsafsadfafdsafasdfafsdafaasdfasfdsafgweaawg</t>
+        </is>
+      </c>
+      <c r="C5" s="17" t="inlineStr">
         <is>
           <t>2020-3-3</t>
         </is>
       </c>
-      <c r="D4" s="17" t="inlineStr">
+      <c r="D5" s="17" t="inlineStr">
         <is>
           <t>&lt;not parse&gt;</t>
         </is>
